--- a/시간계싼.xlsx
+++ b/시간계싼.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leehyemi\Desktop\Leehyemi\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B8B407-ADA8-495B-9EA4-BD8C120B70CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA0AF93-922D-4A97-9B7A-DE1854ECCCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="615" windowWidth="17925" windowHeight="13500" activeTab="1" xr2:uid="{4F2A1580-AE6A-4E83-9776-2DF29EDDD455}"/>
+    <workbookView xWindow="8640" yWindow="1560" windowWidth="12300" windowHeight="13500" activeTab="1" xr2:uid="{4F2A1580-AE6A-4E83-9776-2DF29EDDD455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,42 @@
   </si>
   <si>
     <t>분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*19(19+0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*20(19+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*21(19+2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*22(19+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*23(19+4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*24(19+5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*(19+N)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +189,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -205,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,13 +270,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +320,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,20 +794,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD5834D-C9C7-4D6A-A436-27F38143557F}">
-  <dimension ref="A2:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="2.25" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
@@ -779,8 +844,11 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>D27+15</f>
+        <f>D28+15</f>
         <v>285</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -800,6 +868,9 @@
         <f>D3+15</f>
         <v>300</v>
       </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
@@ -819,11 +890,14 @@
         <f>D4+15</f>
         <v>315</v>
       </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="11">
         <v>3</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I61" si="0">0.25+I4</f>
+        <f t="shared" ref="I5:I62" si="0">0.25+I4</f>
         <v>0.75</v>
       </c>
     </row>
@@ -838,6 +912,9 @@
         <f>D5+15</f>
         <v>330</v>
       </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="11">
         <v>4</v>
       </c>
@@ -858,6 +935,9 @@
         <f>D6+15</f>
         <v>345</v>
       </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="11">
         <v>5</v>
       </c>
@@ -871,13 +951,16 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D27" si="1">C7+15</f>
+        <f t="shared" ref="C8:D28" si="1">C7+15</f>
         <v>75</v>
       </c>
       <c r="D8">
         <f>D7+15</f>
         <v>360</v>
       </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="11">
         <v>6</v>
       </c>
@@ -887,771 +970,777 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
+      <c r="C10" s="12">
+        <f>C8+15</f>
         <v>90</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="12">
         <v>0</v>
       </c>
-      <c r="F9">
-        <f>(B9-6)*15</f>
+      <c r="F10">
+        <f>(B10-6)*15</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <v>7</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="I10">
+        <f>0.25+I8</f>
         <v>1.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F27" si="2">(B10-6)*15</f>
-        <v>15</v>
-      </c>
-      <c r="H10" s="11">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F28" si="2">(B11-6)*15</f>
+        <v>15</v>
+      </c>
+      <c r="H11" s="11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>45</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D13">
-        <f>D12+15</f>
+      <c r="D14">
+        <f>D13+15</f>
         <v>60</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <v>11</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <v>13</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <v>15</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <v>16</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <v>17</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <v>18</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>19</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <v>20</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <v>21</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>21</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <v>22</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <v>23</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>23</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>24</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>25</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>6.25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H28" s="11">
-        <v>26</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H29" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H30" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H31" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H32" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H42" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H43" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>10.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H44" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H45" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H46" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H47" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>11.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H48" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>12.75</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>13.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>14.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62" s="11">
+        <v>59</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H63" s="11">
         <v>60</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>15</v>
       </c>
     </row>
